--- a/raw/cognition/raw_xlsx/V3 vs V4 - SPSS Template.xlsx
+++ b/raw/cognition/raw_xlsx/V3 vs V4 - SPSS Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="121">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Coffee_Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Visit</t>
+    <t xml:space="preserve">visit</t>
   </si>
   <si>
     <t xml:space="preserve">BMI</t>
@@ -203,6 +203,9 @@
     <t xml:space="preserve">No Coffee</t>
   </si>
   <si>
+    <t xml:space="preserve">V3</t>
+  </si>
+  <si>
     <t xml:space="preserve">APC115-011</t>
   </si>
   <si>
@@ -296,6 +299,9 @@
     <t xml:space="preserve">DECAF</t>
   </si>
   <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.2</t>
   </si>
   <si>
@@ -363,6 +369,9 @@
   </si>
   <si>
     <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit</t>
   </si>
   <si>
     <t xml:space="preserve">Time_point_CAR</t>
@@ -489,36 +498,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BF63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B2:B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.71"/>
@@ -529,10 +536,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="2" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="33" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="43" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,8 +723,8 @@
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>24.0210502489814</v>
@@ -889,13 +894,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>21.8129617310318</v>
@@ -1065,13 +1070,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>20.7897153351699</v>
@@ -1241,13 +1246,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>3</v>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>31.1213681177051</v>
@@ -1415,13 +1420,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>3</v>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>23.4697830578512</v>
@@ -1585,13 +1590,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>3</v>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>26.1176093574748</v>
@@ -1759,13 +1764,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>3</v>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>26.3296103077623</v>
@@ -1926,13 +1931,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>3</v>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>24.5441371814998</v>
@@ -2096,13 +2101,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>3</v>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>29.3079584775087</v>
@@ -2272,13 +2277,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>3</v>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>20.7156938086805</v>
@@ -2439,13 +2444,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>3</v>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>26.5831758034026</v>
@@ -2615,13 +2620,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>3</v>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>23.8898726987203</v>
@@ -2769,13 +2774,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>3</v>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>21.2825438050663</v>
@@ -2945,13 +2950,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>3</v>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>24.6530612244898</v>
@@ -3106,13 +3111,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>3</v>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>29.2858179706779</v>
@@ -3282,13 +3287,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>3</v>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>26.2845178813943</v>
@@ -3458,13 +3463,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>3</v>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>22.7420402858999</v>
@@ -3634,13 +3639,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>3</v>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>22.3289132754153</v>
@@ -3807,13 +3812,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>3</v>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>21.8359375</v>
@@ -3956,13 +3961,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>3</v>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>21.2304866850321</v>
@@ -4130,13 +4135,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>3</v>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>23.3795918367347</v>
@@ -4304,13 +4309,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>3</v>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>24.6603360116874</v>
@@ -4473,13 +4478,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>3</v>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>21.3271604938272</v>
@@ -4644,13 +4649,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>3</v>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>25.7561436672968</v>
@@ -4820,13 +4825,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>3</v>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>20.6010570579839</v>
@@ -4996,13 +5001,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>3</v>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>29.5035563942517</v>
@@ -5172,13 +5177,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>3</v>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>26.177830133438</v>
@@ -5348,13 +5353,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>3</v>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>22.6757369614513</v>
@@ -5524,13 +5529,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>3</v>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>19.9546485260771</v>
@@ -5694,13 +5699,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>3</v>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>28.9004712711838</v>
@@ -5867,13 +5872,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>3</v>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>27.9430976919727</v>
@@ -6043,13 +6048,13 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>138</v>
@@ -6211,16 +6216,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>120</v>
@@ -6384,16 +6389,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>104</v>
@@ -6560,13 +6565,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>31.3077236154159</v>
@@ -6719,13 +6724,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>23.3406508264463</v>
@@ -6895,13 +6900,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>25.8372055760295</v>
@@ -7071,13 +7076,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>25.8044186127937</v>
@@ -7236,13 +7241,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>24.2422412752083</v>
@@ -7410,13 +7415,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>28.8235294117647</v>
@@ -7579,13 +7584,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>20.7156938086805</v>
@@ -7750,13 +7755,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>26.9</v>
@@ -7765,7 +7770,7 @@
         <v>108</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>1</v>
@@ -7922,13 +7927,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>24.0569347455645</v>
@@ -7937,7 +7942,7 @@
         <v>101</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>3</v>
@@ -8096,13 +8101,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>24.0569347455645</v>
@@ -8111,7 +8116,7 @@
         <v>113</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>2</v>
@@ -8268,13 +8273,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>24.9795918367347</v>
@@ -8283,7 +8288,7 @@
         <v>139</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>6</v>
@@ -8429,13 +8434,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>29.3946871824648</v>
@@ -8444,7 +8449,7 @@
         <v>117</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>6</v>
@@ -8605,13 +8610,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>26.1147578089633</v>
@@ -8620,7 +8625,7 @@
         <v>134</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>2</v>
@@ -8781,13 +8786,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>22.7420402858999</v>
@@ -8796,7 +8801,7 @@
         <v>131</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>3</v>
@@ -8957,22 +8962,22 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>126</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>4</v>
@@ -9133,22 +9138,22 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>106</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>3</v>
@@ -9309,13 +9314,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>21.8181818181818</v>
@@ -9324,7 +9329,7 @@
         <v>122</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>6</v>
@@ -9485,13 +9490,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>23.6081632653061</v>
@@ -9500,7 +9505,7 @@
         <v>156</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="1" t="n">
@@ -9612,13 +9617,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>24.3681519357195</v>
@@ -9627,7 +9632,7 @@
         <v>136</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>4</v>
@@ -9784,13 +9789,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>21.6666666666667</v>
@@ -9799,7 +9804,7 @@
         <v>130</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>2</v>
@@ -9949,13 +9954,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>25.5493856332703</v>
@@ -9964,7 +9969,7 @@
         <v>145</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>4</v>
@@ -10125,13 +10130,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>20.9482658848038</v>
@@ -10140,7 +10145,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>2</v>
@@ -10301,13 +10306,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>29.3583974452025</v>
@@ -10316,7 +10321,7 @@
         <v>107</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>4</v>
@@ -10477,13 +10482,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>25.7920515841032</v>
@@ -10492,7 +10497,7 @@
         <v>129</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>3</v>
@@ -10650,13 +10655,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>23.2071995464853</v>
@@ -10665,7 +10670,7 @@
         <v>124</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>3</v>
@@ -10820,13 +10825,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>20.1158982111363</v>
@@ -10835,7 +10840,7 @@
         <v>117</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>3</v>
@@ -10996,13 +11001,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>28.7756312224962</v>
@@ -11011,7 +11016,7 @@
         <v>130</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>3</v>
@@ -11170,13 +11175,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>27.9430976919727</v>
@@ -11185,7 +11190,7 @@
         <v>129</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>4</v>
@@ -11353,23 +11358,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H244" activeCellId="1" sqref="B2:B32 H244"/>
+      <selection pane="topLeft" activeCell="H244" activeCellId="0" sqref="H244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11380,13 +11384,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -11395,7 +11399,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3</v>
@@ -11409,10 +11413,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>3</v>
@@ -11426,10 +11430,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>3</v>
@@ -11443,10 +11447,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>3</v>
@@ -11460,10 +11464,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -11477,10 +11481,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>3</v>
@@ -11494,10 +11498,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>3</v>
@@ -11509,10 +11513,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>3</v>
@@ -11526,10 +11530,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>3</v>
@@ -11541,10 +11545,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>3</v>
@@ -11558,10 +11562,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>3</v>
@@ -11575,10 +11579,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3</v>
@@ -11592,10 +11596,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>3</v>
@@ -11609,10 +11613,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>3</v>
@@ -11626,10 +11630,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>3</v>
@@ -11643,10 +11647,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>3</v>
@@ -11660,10 +11664,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>3</v>
@@ -11677,10 +11681,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -11694,10 +11698,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>3</v>
@@ -11711,10 +11715,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>3</v>
@@ -11728,10 +11732,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>3</v>
@@ -11745,10 +11749,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>3</v>
@@ -11762,10 +11766,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>3</v>
@@ -11779,10 +11783,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>3</v>
@@ -11796,10 +11800,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>3</v>
@@ -11813,10 +11817,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>3</v>
@@ -11830,10 +11834,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>3</v>
@@ -11847,10 +11851,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>3</v>
@@ -11864,10 +11868,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>3</v>
@@ -11881,10 +11885,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -11898,10 +11902,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -11918,7 +11922,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>4</v>
@@ -11932,10 +11936,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>4</v>
@@ -11949,10 +11953,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>4</v>
@@ -11966,10 +11970,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>4</v>
@@ -11983,10 +11987,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -12000,10 +12004,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -12017,10 +12021,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -12034,10 +12038,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -12051,10 +12055,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -12066,10 +12070,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -12083,10 +12087,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>4</v>
@@ -12100,10 +12104,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>4</v>
@@ -12117,10 +12121,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>4</v>
@@ -12134,10 +12138,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>4</v>
@@ -12151,10 +12155,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>4</v>
@@ -12168,10 +12172,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>4</v>
@@ -12185,10 +12189,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>4</v>
@@ -12202,10 +12206,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>4</v>
@@ -12219,10 +12223,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>4</v>
@@ -12236,10 +12240,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>4</v>
@@ -12253,10 +12257,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>4</v>
@@ -12270,10 +12274,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>4</v>
@@ -12287,10 +12291,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>4</v>
@@ -12304,10 +12308,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>4</v>
@@ -12321,10 +12325,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>4</v>
@@ -12338,10 +12342,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>4</v>
@@ -12355,10 +12359,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>4</v>
@@ -12372,10 +12376,10 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>4</v>
@@ -12389,10 +12393,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>4</v>
@@ -12406,10 +12410,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4</v>
@@ -12423,10 +12427,10 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4</v>
@@ -12443,7 +12447,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>3</v>
@@ -12457,10 +12461,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>3</v>
@@ -12474,10 +12478,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>3</v>
@@ -12491,10 +12495,10 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>3</v>
@@ -12508,10 +12512,10 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>3</v>
@@ -12525,10 +12529,10 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>3</v>
@@ -12542,10 +12546,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>3</v>
@@ -12557,10 +12561,10 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>3</v>
@@ -12574,10 +12578,10 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>3</v>
@@ -12591,10 +12595,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>3</v>
@@ -12608,10 +12612,10 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>3</v>
@@ -12625,10 +12629,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>3</v>
@@ -12642,10 +12646,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>3</v>
@@ -12659,10 +12663,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>3</v>
@@ -12676,10 +12680,10 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>3</v>
@@ -12693,10 +12697,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>3</v>
@@ -12710,10 +12714,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>3</v>
@@ -12727,10 +12731,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>3</v>
@@ -12744,10 +12748,10 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>3</v>
@@ -12761,10 +12765,10 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>3</v>
@@ -12778,10 +12782,10 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>3</v>
@@ -12795,10 +12799,10 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>3</v>
@@ -12812,10 +12816,10 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>3</v>
@@ -12829,10 +12833,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>3</v>
@@ -12846,10 +12850,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>3</v>
@@ -12863,10 +12867,10 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>3</v>
@@ -12880,10 +12884,10 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>3</v>
@@ -12897,10 +12901,10 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>3</v>
@@ -12914,10 +12918,10 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>3</v>
@@ -12931,10 +12935,10 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>3</v>
@@ -12948,10 +12952,10 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>3</v>
@@ -12968,7 +12972,7 @@
         <v>58</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>4</v>
@@ -12982,10 +12986,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>4</v>
@@ -12999,10 +13003,10 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>4</v>
@@ -13016,10 +13020,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>4</v>
@@ -13033,10 +13037,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>4</v>
@@ -13050,10 +13054,10 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>4</v>
@@ -13067,10 +13071,10 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>4</v>
@@ -13082,10 +13086,10 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>4</v>
@@ -13099,10 +13103,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>4</v>
@@ -13116,10 +13120,10 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>4</v>
@@ -13133,10 +13137,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>4</v>
@@ -13150,10 +13154,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>4</v>
@@ -13167,10 +13171,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>4</v>
@@ -13184,10 +13188,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>4</v>
@@ -13201,10 +13205,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>4</v>
@@ -13218,10 +13222,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>4</v>
@@ -13235,10 +13239,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>4</v>
@@ -13252,10 +13256,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>4</v>
@@ -13269,10 +13273,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>4</v>
@@ -13286,10 +13290,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>4</v>
@@ -13303,10 +13307,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>4</v>
@@ -13320,10 +13324,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>4</v>
@@ -13337,10 +13341,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>4</v>
@@ -13354,10 +13358,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>4</v>
@@ -13371,10 +13375,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>4</v>
@@ -13388,10 +13392,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>4</v>
@@ -13405,10 +13409,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>4</v>
@@ -13422,10 +13426,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>4</v>
@@ -13439,10 +13443,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>4</v>
@@ -13456,10 +13460,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>4</v>
@@ -13473,10 +13477,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>4</v>
@@ -13493,7 +13497,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>3</v>
@@ -13507,10 +13511,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>3</v>
@@ -13524,10 +13528,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>3</v>
@@ -13541,10 +13545,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>3</v>
@@ -13558,10 +13562,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>3</v>
@@ -13575,10 +13579,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>3</v>
@@ -13592,10 +13596,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>3</v>
@@ -13607,10 +13611,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>3</v>
@@ -13624,10 +13628,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>3</v>
@@ -13641,10 +13645,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>3</v>
@@ -13658,10 +13662,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>3</v>
@@ -13675,10 +13679,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>3</v>
@@ -13692,10 +13696,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>3</v>
@@ -13709,10 +13713,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>3</v>
@@ -13726,10 +13730,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>3</v>
@@ -13743,10 +13747,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>3</v>
@@ -13760,10 +13764,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>3</v>
@@ -13777,10 +13781,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>3</v>
@@ -13794,10 +13798,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>3</v>
@@ -13811,10 +13815,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>3</v>
@@ -13828,10 +13832,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>3</v>
@@ -13845,10 +13849,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>3</v>
@@ -13862,10 +13866,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>3</v>
@@ -13879,10 +13883,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>3</v>
@@ -13896,10 +13900,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>3</v>
@@ -13913,10 +13917,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>3</v>
@@ -13930,10 +13934,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>3</v>
@@ -13947,10 +13951,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>3</v>
@@ -13964,10 +13968,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>3</v>
@@ -13981,10 +13985,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>3</v>
@@ -13998,10 +14002,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>3</v>
@@ -14018,7 +14022,7 @@
         <v>58</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>4</v>
@@ -14032,10 +14036,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>4</v>
@@ -14049,10 +14053,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>4</v>
@@ -14066,10 +14070,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>4</v>
@@ -14083,10 +14087,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>4</v>
@@ -14100,10 +14104,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>4</v>
@@ -14117,10 +14121,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>4</v>
@@ -14134,10 +14138,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>4</v>
@@ -14151,10 +14155,10 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>4</v>
@@ -14168,10 +14172,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>4</v>
@@ -14185,10 +14189,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>4</v>
@@ -14202,10 +14206,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>4</v>
@@ -14219,10 +14223,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>4</v>
@@ -14236,10 +14240,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>4</v>
@@ -14253,10 +14257,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>4</v>
@@ -14270,10 +14274,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>4</v>
@@ -14287,10 +14291,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>4</v>
@@ -14304,10 +14308,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>4</v>
@@ -14321,10 +14325,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>4</v>
@@ -14338,10 +14342,10 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>4</v>
@@ -14355,10 +14359,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>4</v>
@@ -14372,10 +14376,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>4</v>
@@ -14389,10 +14393,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>4</v>
@@ -14406,10 +14410,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>4</v>
@@ -14423,10 +14427,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>4</v>
@@ -14440,10 +14444,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>4</v>
@@ -14457,10 +14461,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>4</v>
@@ -14474,10 +14478,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>4</v>
@@ -14491,10 +14495,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>4</v>
@@ -14508,10 +14512,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>4</v>
@@ -14525,10 +14529,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>4</v>
@@ -14545,7 +14549,7 @@
         <v>58</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>3</v>
@@ -14559,10 +14563,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>3</v>
@@ -14576,10 +14580,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>3</v>
@@ -14593,10 +14597,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>3</v>
@@ -14610,10 +14614,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>3</v>
@@ -14627,10 +14631,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>3</v>
@@ -14644,10 +14648,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>3</v>
@@ -14659,10 +14663,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>3</v>
@@ -14676,10 +14680,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>3</v>
@@ -14693,10 +14697,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>3</v>
@@ -14710,10 +14714,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>3</v>
@@ -14727,10 +14731,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C199" s="1" t="n">
         <v>3</v>
@@ -14744,10 +14748,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C200" s="1" t="n">
         <v>3</v>
@@ -14761,10 +14765,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>3</v>
@@ -14778,10 +14782,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C202" s="1" t="n">
         <v>3</v>
@@ -14795,10 +14799,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>3</v>
@@ -14812,10 +14816,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>3</v>
@@ -14829,10 +14833,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>3</v>
@@ -14846,10 +14850,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>3</v>
@@ -14863,10 +14867,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>3</v>
@@ -14880,10 +14884,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>3</v>
@@ -14897,10 +14901,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>3</v>
@@ -14914,10 +14918,10 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>3</v>
@@ -14929,10 +14933,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>3</v>
@@ -14946,10 +14950,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>3</v>
@@ -14963,10 +14967,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C213" s="1" t="n">
         <v>3</v>
@@ -14980,10 +14984,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>3</v>
@@ -14997,10 +15001,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>3</v>
@@ -15014,10 +15018,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C216" s="1" t="n">
         <v>3</v>
@@ -15031,10 +15035,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C217" s="1" t="n">
         <v>3</v>
@@ -15048,10 +15052,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C218" s="1" t="n">
         <v>3</v>
@@ -15068,7 +15072,7 @@
         <v>58</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C219" s="1" t="n">
         <v>4</v>
@@ -15082,10 +15086,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>4</v>
@@ -15099,10 +15103,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>4</v>
@@ -15116,10 +15120,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>4</v>
@@ -15133,10 +15137,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C223" s="1" t="n">
         <v>4</v>
@@ -15150,10 +15154,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C224" s="1" t="n">
         <v>4</v>
@@ -15167,10 +15171,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C225" s="1" t="n">
         <v>4</v>
@@ -15184,10 +15188,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>4</v>
@@ -15201,10 +15205,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C227" s="1" t="n">
         <v>4</v>
@@ -15218,10 +15222,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C228" s="1" t="n">
         <v>4</v>
@@ -15235,10 +15239,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C229" s="1" t="n">
         <v>4</v>
@@ -15252,10 +15256,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C230" s="1" t="n">
         <v>4</v>
@@ -15269,10 +15273,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C231" s="1" t="n">
         <v>4</v>
@@ -15286,10 +15290,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>4</v>
@@ -15303,10 +15307,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>4</v>
@@ -15320,10 +15324,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C234" s="1" t="n">
         <v>4</v>
@@ -15337,10 +15341,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>4</v>
@@ -15352,10 +15356,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>4</v>
@@ -15369,10 +15373,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>4</v>
@@ -15386,10 +15390,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>4</v>
@@ -15403,10 +15407,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C239" s="1" t="n">
         <v>4</v>
@@ -15420,10 +15424,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C240" s="1" t="n">
         <v>4</v>
@@ -15437,10 +15441,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C241" s="1" t="n">
         <v>4</v>
@@ -15454,10 +15458,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>4</v>
@@ -15471,10 +15475,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C243" s="1" t="n">
         <v>4</v>
@@ -15488,10 +15492,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C244" s="1" t="n">
         <v>4</v>
@@ -15505,10 +15509,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C245" s="1" t="n">
         <v>4</v>
@@ -15522,10 +15526,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>4</v>
@@ -15539,10 +15543,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>4</v>
@@ -15556,10 +15560,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C248" s="2" t="n">
         <v>4</v>
@@ -15573,10 +15577,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C249" s="2" t="n">
         <v>4</v>

--- a/raw/cognition/raw_xlsx/V3 vs V4 - SPSS Template.xlsx
+++ b/raw/cognition/raw_xlsx/V3 vs V4 - SPSS Template.xlsx
@@ -296,7 +296,7 @@
     <t xml:space="preserve">APC115-109</t>
   </si>
   <si>
-    <t xml:space="preserve">DECAF</t>
+    <t xml:space="preserve">CAF</t>
   </si>
   <si>
     <t xml:space="preserve">V4</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">CAF</t>
+    <t xml:space="preserve">DECAF</t>
   </si>
   <si>
     <t xml:space="preserve">73</t>
@@ -515,11 +515,11 @@
   </sheetPr>
   <dimension ref="A1:BF63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
@@ -11368,7 +11368,7 @@
       <selection pane="topLeft" activeCell="H244" activeCellId="0" sqref="H244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.85"/>
